--- a/total_res/ST2_output.xlsx
+++ b/total_res/ST2_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M477"/>
+  <dimension ref="A1:N477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>real_quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>percent</t>
         </is>
       </c>
@@ -538,10 +543,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -587,6 +601,9 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>-0.07536879999999999</v>
+      </c>
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +651,9 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>-0.0347152</v>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,6 +701,9 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>-1.7485</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -736,6 +759,9 @@
         <v>0.8500000000000227</v>
       </c>
       <c r="M6" t="n">
+        <v>0.7163015000000227</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -783,6 +809,9 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>-0.133809</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -830,6 +859,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>-0.06054099999999999</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -877,6 +909,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>-0.270764</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,6 +959,9 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>-0.03371159999999999</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -979,6 +1017,9 @@
         <v>-1.140000000000015</v>
       </c>
       <c r="M11" t="n">
+        <v>-1.183100200000015</v>
+      </c>
+      <c r="N11" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -1026,6 +1067,9 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>-0.04295199999999999</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1081,6 +1125,9 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="M13" t="n">
+        <v>-0.008219050000004547</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1128,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>-0.0132197</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1175,6 +1225,9 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>-0.367224</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1230,6 +1283,9 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="M16" t="n">
+        <v>0.02405680000000626</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1277,6 +1333,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>-0.0159484</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1332,6 +1391,9 @@
         <v>0.2700000000000031</v>
       </c>
       <c r="M18" t="n">
+        <v>0.2548069000000031</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1387,6 +1449,9 @@
         <v>-1.149999999999999</v>
       </c>
       <c r="M19" t="n">
+        <v>-1.165008499999999</v>
+      </c>
+      <c r="N19" t="n">
         <v>-1.97</v>
       </c>
     </row>
@@ -1434,6 +1499,9 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>-0.014859</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1481,6 +1549,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>-0.0055159</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1528,6 +1599,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>-0.177554</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1575,6 +1649,9 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>-0.000157196</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,6 +1707,9 @@
         <v>-3.75</v>
       </c>
       <c r="M24" t="n">
+        <v>-4.5394315</v>
+      </c>
+      <c r="N24" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1685,6 +1765,9 @@
         <v>16.09999999999991</v>
       </c>
       <c r="M25" t="n">
+        <v>15.31314899999991</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -1740,6 +1823,9 @@
         <v>9.449999999999818</v>
       </c>
       <c r="M26" t="n">
+        <v>8.664013499999818</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1795,6 +1881,9 @@
         <v>35.30000000000018</v>
       </c>
       <c r="M27" t="n">
+        <v>34.51737400000018</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -1842,6 +1931,9 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>-0.7780369999999999</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1897,6 +1989,9 @@
         <v>0.1299999999999955</v>
       </c>
       <c r="M29" t="n">
+        <v>0.1209571999999955</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1952,6 +2047,9 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="M30" t="n">
+        <v>0.03594615000000171</v>
+      </c>
+      <c r="N30" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2007,6 +2105,9 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="M31" t="n">
+        <v>-0.004048649999997441</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2054,6 +2155,9 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>-0.0090493</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,10 +2203,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2156,6 +2269,9 @@
         <v>0.3900000000000432</v>
       </c>
       <c r="M34" t="n">
+        <v>0.3154385000000432</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2203,6 +2319,9 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>-0.07451079999999999</v>
+      </c>
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2258,6 +2377,9 @@
         <v>-0.2700000000000102</v>
       </c>
       <c r="M36" t="n">
+        <v>-0.3041471000000102</v>
+      </c>
+      <c r="N36" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2305,6 +2427,9 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>-0.034112</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2360,6 +2485,9 @@
         <v>59.5</v>
       </c>
       <c r="M38" t="n">
+        <v>57.768465</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -2415,6 +2543,9 @@
         <v>-25</v>
       </c>
       <c r="M39" t="n">
+        <v>-26.72055</v>
+      </c>
+      <c r="N39" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -2462,6 +2593,9 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>-1.7173</v>
+      </c>
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,6 +2651,9 @@
         <v>0.8499999999999659</v>
       </c>
       <c r="M41" t="n">
+        <v>0.7177834999999659</v>
+      </c>
+      <c r="N41" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2572,6 +2709,9 @@
         <v>4.300000000000011</v>
       </c>
       <c r="M42" t="n">
+        <v>4.168232000000011</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -2619,6 +2759,9 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>-0.131209</v>
+      </c>
+      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2674,6 +2817,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M44" t="n">
+        <v>0.04031699999999432</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2729,6 +2875,9 @@
         <v>0.7400000000000091</v>
       </c>
       <c r="M45" t="n">
+        <v>0.6802338000000091</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2776,6 +2925,9 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>-0.0598624</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2831,6 +2983,9 @@
         <v>-9.599999999999909</v>
       </c>
       <c r="M47" t="n">
+        <v>-9.86670799999991</v>
+      </c>
+      <c r="N47" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -2886,6 +3041,9 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
+        <v>-0.26546</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2941,6 +3099,9 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
+        <v>0.73441</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2988,6 +3149,9 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
+        <v>-0.26572</v>
+      </c>
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3043,6 +3207,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M51" t="n">
+        <v>-0.05327739999999602</v>
+      </c>
+      <c r="N51" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3090,6 +3257,9 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
+        <v>-0.03328</v>
+      </c>
+      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3137,6 +3307,9 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
+        <v>-0.04295199999999999</v>
+      </c>
+      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3192,6 +3365,9 @@
         <v>0.1750000000000043</v>
       </c>
       <c r="M54" t="n">
+        <v>0.1618667500000043</v>
+      </c>
+      <c r="N54" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -3247,6 +3423,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M55" t="n">
+        <v>-0.1530923000000006</v>
+      </c>
+      <c r="N55" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -3302,6 +3481,9 @@
         <v>0.08999999999999631</v>
       </c>
       <c r="M56" t="n">
+        <v>0.0769375999999963</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3349,6 +3531,9 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
+        <v>-0.0130507</v>
+      </c>
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3396,6 +3581,9 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
+        <v>-0.366392</v>
+      </c>
+      <c r="N58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3443,6 +3631,9 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
+        <v>-0.0158028</v>
+      </c>
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3498,6 +3689,9 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="M60" t="n">
+        <v>-0.004816099999994879</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3545,6 +3739,9 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
+        <v>-0.0148174</v>
+      </c>
+      <c r="N61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3600,6 +3797,9 @@
         <v>2.780000000000001</v>
       </c>
       <c r="M62" t="n">
+        <v>2.742458600000001</v>
+      </c>
+      <c r="N62" t="n">
         <v>1.94</v>
       </c>
     </row>
@@ -3647,6 +3847,9 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
+        <v>-0.0379028</v>
+      </c>
+      <c r="N63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3702,6 +3905,9 @@
         <v>-0.08200000000000074</v>
       </c>
       <c r="M64" t="n">
+        <v>-0.08739448000000075</v>
+      </c>
+      <c r="N64" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -3757,6 +3963,9 @@
         <v>0.09600000000000009</v>
       </c>
       <c r="M65" t="n">
+        <v>0.09058238000000009</v>
+      </c>
+      <c r="N65" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3804,6 +4013,9 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
+        <v>-0.0054301</v>
+      </c>
+      <c r="N66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3851,6 +4063,9 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
+        <v>-2.58648e-05</v>
+      </c>
+      <c r="N67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3906,6 +4121,9 @@
         <v>0.005299999999999971</v>
       </c>
       <c r="M68" t="n">
+        <v>0.005143934999999971</v>
+      </c>
+      <c r="N68" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -3953,6 +4171,9 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
+        <v>-0.000156754</v>
+      </c>
+      <c r="N69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,6 +4229,9 @@
         <v>-3.400000000000091</v>
       </c>
       <c r="M70" t="n">
+        <v>-4.170653000000091</v>
+      </c>
+      <c r="N70" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4063,6 +4287,9 @@
         <v>2.050000000000182</v>
       </c>
       <c r="M71" t="n">
+        <v>1.278638500000182</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4118,6 +4345,9 @@
         <v>4.600000000000364</v>
       </c>
       <c r="M72" t="n">
+        <v>3.828970000000364</v>
+      </c>
+      <c r="N72" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4165,6 +4395,9 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
+        <v>-0.7704319999999999</v>
+      </c>
+      <c r="N73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4220,6 +4453,9 @@
         <v>-0.2299999999999969</v>
       </c>
       <c r="M74" t="n">
+        <v>-0.2389387999999969</v>
+      </c>
+      <c r="N74" t="n">
         <v>-0.67</v>
       </c>
     </row>
@@ -4275,6 +4511,9 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="M75" t="n">
+        <v>0.001092399999998011</v>
+      </c>
+      <c r="N75" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4322,6 +4561,9 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
+        <v>-0.008906300000000001</v>
+      </c>
+      <c r="N76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4367,10 +4609,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4424,6 +4675,9 @@
         <v>-0.5800000000000125</v>
       </c>
       <c r="M78" t="n">
+        <v>-0.6133736000000125</v>
+      </c>
+      <c r="N78" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -4471,6 +4725,9 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
+        <v>-0.03329819999999999</v>
+      </c>
+      <c r="N79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4518,6 +4775,9 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
+        <v>-0.129181</v>
+      </c>
+      <c r="N80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4573,6 +4833,9 @@
         <v>-0.6100000000000136</v>
       </c>
       <c r="M81" t="n">
+        <v>-0.6684259000000136</v>
+      </c>
+      <c r="N81" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -4628,6 +4891,9 @@
         <v>-0.1300000000000239</v>
       </c>
       <c r="M82" t="n">
+        <v>-0.1884883000000239</v>
+      </c>
+      <c r="N82" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4683,6 +4949,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M83" t="n">
+        <v>-0.1184792000000023</v>
+      </c>
+      <c r="N83" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4730,6 +4999,9 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
+        <v>-0.05848699999999999</v>
+      </c>
+      <c r="N84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4785,6 +5057,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M85" t="n">
+        <v>-0.4622619999999318</v>
+      </c>
+      <c r="N85" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4832,6 +5107,9 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
+        <v>-0.262236</v>
+      </c>
+      <c r="N86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4887,6 +5165,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M87" t="n">
+        <v>0.3677236000000056</v>
+      </c>
+      <c r="N87" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4934,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
+        <v>-0.03222439999999999</v>
+      </c>
+      <c r="N88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4981,6 +5265,9 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
+        <v>-0.041808</v>
+      </c>
+      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5028,6 +5315,9 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
+        <v>-0.357604</v>
+      </c>
+      <c r="N90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5075,6 +5365,9 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
+        <v>-0.0154388</v>
+      </c>
+      <c r="N91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5122,6 +5415,9 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
+        <v>-0.0145028</v>
+      </c>
+      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5177,6 +5473,9 @@
         <v>-0.3800000000000239</v>
       </c>
       <c r="M93" t="n">
+        <v>-0.4162986000000239</v>
+      </c>
+      <c r="N93" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -5224,6 +5523,9 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
+        <v>-0.0362492</v>
+      </c>
+      <c r="N94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5279,6 +5581,9 @@
         <v>-0.2740000000000009</v>
       </c>
       <c r="M95" t="n">
+        <v>-0.2791979200000009</v>
+      </c>
+      <c r="N95" t="n">
         <v>-1.36</v>
       </c>
     </row>
@@ -5326,6 +5631,9 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
+        <v>-0.0051623</v>
+      </c>
+      <c r="N96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5373,6 +5681,9 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
+        <v>-0.169156</v>
+      </c>
+      <c r="N97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5420,6 +5731,9 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
+        <v>-2.47e-05</v>
+      </c>
+      <c r="N98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5467,6 +5781,9 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
+        <v>-0.0247598</v>
+      </c>
+      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5514,6 +5831,9 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
+        <v>-0.00309218</v>
+      </c>
+      <c r="N100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5559,10 +5879,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5616,6 +5945,9 @@
         <v>-1.560000000000002</v>
       </c>
       <c r="M102" t="n">
+        <v>-1.632706400000002</v>
+      </c>
+      <c r="N102" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -5671,6 +6003,9 @@
         <v>1</v>
       </c>
       <c r="M103" t="n">
+        <v>0.9276264</v>
+      </c>
+      <c r="N103" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -5726,6 +6061,9 @@
         <v>0.02999999999997272</v>
       </c>
       <c r="M104" t="n">
+        <v>-0.04224750000002728</v>
+      </c>
+      <c r="N104" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -5773,6 +6111,9 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
+        <v>-0.07225139999999999</v>
+      </c>
+      <c r="N105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,6 +6169,9 @@
         <v>0.2399999999999807</v>
       </c>
       <c r="M106" t="n">
+        <v>0.2064547999999807</v>
+      </c>
+      <c r="N106" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -5875,6 +6219,9 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
+        <v>-0.03357639999999999</v>
+      </c>
+      <c r="N107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5922,6 +6269,9 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
+        <v>-1.68285</v>
+      </c>
+      <c r="N108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5969,6 +6319,9 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
+        <v>-0.129064</v>
+      </c>
+      <c r="N109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,6 +6377,9 @@
         <v>-0.2900000000000205</v>
       </c>
       <c r="M110" t="n">
+        <v>-0.3487041000000205</v>
+      </c>
+      <c r="N110" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -6079,6 +6435,9 @@
         <v>0.4199999999999875</v>
       </c>
       <c r="M111" t="n">
+        <v>0.3613881999999875</v>
+      </c>
+      <c r="N111" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -6126,6 +6485,9 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
+        <v>-0.0585572</v>
+      </c>
+      <c r="N112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6181,6 +6543,9 @@
         <v>-16</v>
       </c>
       <c r="M113" t="n">
+        <v>-16.262964</v>
+      </c>
+      <c r="N113" t="n">
         <v>-1.57</v>
       </c>
     </row>
@@ -6236,6 +6601,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M114" t="n">
+        <v>0.5392199999999546</v>
+      </c>
+      <c r="N114" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -6291,6 +6659,9 @@
         <v>1.600000000000023</v>
       </c>
       <c r="M115" t="n">
+        <v>1.339116000000023</v>
+      </c>
+      <c r="N115" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -6346,6 +6717,9 @@
         <v>-1.799999999999955</v>
       </c>
       <c r="M116" t="n">
+        <v>-2.061325999999955</v>
+      </c>
+      <c r="N116" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -6393,6 +6767,9 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
+        <v>-0.26156</v>
+      </c>
+      <c r="N117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6448,6 +6825,9 @@
         <v>-0.0129999999999999</v>
       </c>
       <c r="M118" t="n">
+        <v>-0.0160800899999999</v>
+      </c>
+      <c r="N118" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -6503,6 +6883,9 @@
         <v>0.004999999999999005</v>
       </c>
       <c r="M119" t="n">
+        <v>0.001922249999999005</v>
+      </c>
+      <c r="N119" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -6558,6 +6941,9 @@
         <v>-0.004000000000001336</v>
       </c>
       <c r="M120" t="n">
+        <v>-0.007076580000001336</v>
+      </c>
+      <c r="N120" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -6613,6 +6999,9 @@
         <v>-0.07600000000000051</v>
       </c>
       <c r="M121" t="n">
+        <v>-0.07908594000000051</v>
+      </c>
+      <c r="N121" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -6660,6 +7049,9 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
+        <v>-0.00309582</v>
+      </c>
+      <c r="N122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6715,6 +7107,9 @@
         <v>0.1000000000000085</v>
       </c>
       <c r="M123" t="n">
+        <v>0.06759100000000851</v>
+      </c>
+      <c r="N123" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -6770,6 +7165,9 @@
         <v>0.2800000000000011</v>
       </c>
       <c r="M124" t="n">
+        <v>0.2475676000000011</v>
+      </c>
+      <c r="N124" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -6817,6 +7215,9 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
+        <v>-0.0324688</v>
+      </c>
+      <c r="N125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6872,6 +7273,9 @@
         <v>-3.039999999999992</v>
       </c>
       <c r="M126" t="n">
+        <v>-3.081709199999992</v>
+      </c>
+      <c r="N126" t="n">
         <v>-1.88</v>
       </c>
     </row>
@@ -6927,6 +7331,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M127" t="n">
+        <v>-0.4013607999999852</v>
+      </c>
+      <c r="N127" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -6974,6 +7381,9 @@
         <v>0</v>
       </c>
       <c r="M128" t="n">
+        <v>-0.0414076</v>
+      </c>
+      <c r="N128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7029,6 +7439,9 @@
         <v>0.07499999999999574</v>
       </c>
       <c r="M129" t="n">
+        <v>0.06223854999999573</v>
+      </c>
+      <c r="N129" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -7084,6 +7497,9 @@
         <v>-0.1700000000000017</v>
       </c>
       <c r="M130" t="n">
+        <v>-0.1827296000000017</v>
+      </c>
+      <c r="N130" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -7139,6 +7555,9 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="M131" t="n">
+        <v>0.007295100000003133</v>
+      </c>
+      <c r="N131" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -7194,6 +7613,9 @@
         <v>0.07500000000000284</v>
       </c>
       <c r="M132" t="n">
+        <v>0.06228795000000284</v>
+      </c>
+      <c r="N132" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -7241,6 +7663,9 @@
         <v>0</v>
       </c>
       <c r="M133" t="n">
+        <v>-0.0127218</v>
+      </c>
+      <c r="N133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7296,6 +7721,9 @@
         <v>0.02999999999999403</v>
       </c>
       <c r="M134" t="n">
+        <v>0.01455729999999403</v>
+      </c>
+      <c r="N134" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -7351,6 +7779,9 @@
         <v>-0.4100000000000037</v>
       </c>
       <c r="M135" t="n">
+        <v>-0.4254999000000037</v>
+      </c>
+      <c r="N135" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -7398,6 +7829,9 @@
         <v>0</v>
       </c>
       <c r="M136" t="n">
+        <v>-0.0155532</v>
+      </c>
+      <c r="N136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7453,6 +7887,9 @@
         <v>-0.2999999999999972</v>
       </c>
       <c r="M137" t="n">
+        <v>-0.3251965999999972</v>
+      </c>
+      <c r="N137" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -7508,6 +7945,9 @@
         <v>0.07000000000000739</v>
       </c>
       <c r="M138" t="n">
+        <v>0.04485150000000739</v>
+      </c>
+      <c r="N138" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -7563,6 +8003,9 @@
         <v>-0.2000000000000028</v>
       </c>
       <c r="M139" t="n">
+        <v>-0.2251134000000028</v>
+      </c>
+      <c r="N139" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -7618,6 +8061,9 @@
         <v>0.3999999999999915</v>
       </c>
       <c r="M140" t="n">
+        <v>0.3749645999999915</v>
+      </c>
+      <c r="N140" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -7673,6 +8119,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M141" t="n">
+        <v>-0.1649652000000006</v>
+      </c>
+      <c r="N141" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -7720,6 +8169,9 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
+        <v>-0.024947</v>
+      </c>
+      <c r="N142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7775,6 +8227,9 @@
         <v>-0.8399999999999963</v>
       </c>
       <c r="M143" t="n">
+        <v>-0.8544819999999963</v>
+      </c>
+      <c r="N143" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -7830,6 +8285,9 @@
         <v>-0.1299999999999955</v>
       </c>
       <c r="M144" t="n">
+        <v>-0.1443896999999955</v>
+      </c>
+      <c r="N144" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -7877,6 +8335,9 @@
         <v>0</v>
       </c>
       <c r="M145" t="n">
+        <v>-0.0144066</v>
+      </c>
+      <c r="N145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7932,6 +8393,9 @@
         <v>1.359999999999985</v>
       </c>
       <c r="M146" t="n">
+        <v>1.322679599999985</v>
+      </c>
+      <c r="N146" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -7979,6 +8443,9 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
+        <v>-0.03749719999999999</v>
+      </c>
+      <c r="N147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8034,6 +8501,9 @@
         <v>0.06200000000000117</v>
       </c>
       <c r="M148" t="n">
+        <v>0.05678284000000117</v>
+      </c>
+      <c r="N148" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -8089,6 +8559,9 @@
         <v>0.1430000000000007</v>
       </c>
       <c r="M149" t="n">
+        <v>0.1377933700000007</v>
+      </c>
+      <c r="N149" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -8136,6 +8609,9 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
+        <v>-0.00518804</v>
+      </c>
+      <c r="N150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8191,6 +8667,9 @@
         <v>-3.799999999999955</v>
       </c>
       <c r="M151" t="n">
+        <v>-3.972925999999955</v>
+      </c>
+      <c r="N151" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -8238,6 +8717,9 @@
         <v>0</v>
       </c>
       <c r="M152" t="n">
+        <v>-0.172432</v>
+      </c>
+      <c r="N152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8293,6 +8775,9 @@
         <v>6.840000000000003</v>
       </c>
       <c r="M153" t="n">
+        <v>6.800695800000003</v>
+      </c>
+      <c r="N153" t="n">
         <v>4.42</v>
       </c>
     </row>
@@ -8348,6 +8833,9 @@
         <v>0.3700000000000045</v>
       </c>
       <c r="M154" t="n">
+        <v>0.3315369000000045</v>
+      </c>
+      <c r="N154" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -8395,6 +8883,9 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
+        <v>-0.0385112</v>
+      </c>
+      <c r="N155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8450,6 +8941,9 @@
         <v>-0.0004600000000000021</v>
       </c>
       <c r="M156" t="n">
+        <v>-0.0004849522000000021</v>
+      </c>
+      <c r="N156" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -8505,6 +8999,9 @@
         <v>0.0002999999999999947</v>
       </c>
       <c r="M157" t="n">
+        <v>0.0002751465999999947</v>
+      </c>
+      <c r="N157" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -8552,6 +9049,9 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
+        <v>-2.48144e-05</v>
+      </c>
+      <c r="N158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8607,6 +9107,9 @@
         <v>-30.59999999999991</v>
       </c>
       <c r="M159" t="n">
+        <v>-31.35658699999991</v>
+      </c>
+      <c r="N159" t="n">
         <v>-1.05</v>
       </c>
     </row>
@@ -8662,6 +9165,9 @@
         <v>-2.549999999999727</v>
       </c>
       <c r="M160" t="n">
+        <v>-3.302940499999727</v>
+      </c>
+      <c r="N160" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -8717,6 +9223,9 @@
         <v>4.800000000000182</v>
       </c>
       <c r="M161" t="n">
+        <v>4.046104000000183</v>
+      </c>
+      <c r="N161" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -8764,6 +9273,9 @@
         <v>0</v>
       </c>
       <c r="M162" t="n">
+        <v>-0.75452</v>
+      </c>
+      <c r="N162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8809,10 +9321,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8866,6 +9387,9 @@
         <v>0.9700000000000273</v>
       </c>
       <c r="M164" t="n">
+        <v>0.8973157000000272</v>
+      </c>
+      <c r="N164" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -8921,6 +9445,9 @@
         <v>-1.379999999999995</v>
       </c>
       <c r="M165" t="n">
+        <v>-1.452989799999995</v>
+      </c>
+      <c r="N165" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -8968,6 +9495,9 @@
         <v>0</v>
       </c>
       <c r="M166" t="n">
+        <v>-0.0731692</v>
+      </c>
+      <c r="N166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9023,6 +9553,9 @@
         <v>1.5</v>
       </c>
       <c r="M167" t="n">
+        <v>1.466759</v>
+      </c>
+      <c r="N167" t="n">
         <v>1.17</v>
       </c>
     </row>
@@ -9078,6 +9611,9 @@
         <v>1.219999999999999</v>
       </c>
       <c r="M168" t="n">
+        <v>1.186795399999999</v>
+      </c>
+      <c r="N168" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -9133,6 +9669,9 @@
         <v>0.1399999999999864</v>
       </c>
       <c r="M169" t="n">
+        <v>0.1066549999999864</v>
+      </c>
+      <c r="N169" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -9180,6 +9719,9 @@
         <v>0</v>
       </c>
       <c r="M170" t="n">
+        <v>-0.0333268</v>
+      </c>
+      <c r="N170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9235,6 +9777,9 @@
         <v>6</v>
       </c>
       <c r="M171" t="n">
+        <v>4.33873</v>
+      </c>
+      <c r="N171" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -9290,6 +9835,9 @@
         <v>-70.5</v>
       </c>
       <c r="M172" t="n">
+        <v>-72.171215</v>
+      </c>
+      <c r="N172" t="n">
         <v>-1.1</v>
       </c>
     </row>
@@ -9337,6 +9885,9 @@
         <v>0</v>
       </c>
       <c r="M173" t="n">
+        <v>-1.68038</v>
+      </c>
+      <c r="N173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9384,6 +9935,9 @@
         <v>0</v>
       </c>
       <c r="M174" t="n">
+        <v>-0.129051</v>
+      </c>
+      <c r="N174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9439,6 +9993,9 @@
         <v>1.640000000000015</v>
       </c>
       <c r="M175" t="n">
+        <v>1.581562400000015</v>
+      </c>
+      <c r="N175" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -9494,6 +10051,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M176" t="n">
+        <v>-0.1782088000000045</v>
+      </c>
+      <c r="N176" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -9549,6 +10109,9 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="M177" t="n">
+        <v>-0.008186700000017047</v>
+      </c>
+      <c r="N177" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -9596,6 +10159,9 @@
         <v>0</v>
       </c>
       <c r="M178" t="n">
+        <v>-0.05818019999999999</v>
+      </c>
+      <c r="N178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9643,6 +10209,9 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
+        <v>-0.2609879999999999</v>
+      </c>
+      <c r="N179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9698,6 +10267,9 @@
         <v>0.03600000000000136</v>
       </c>
       <c r="M180" t="n">
+        <v>0.03291094000000136</v>
+      </c>
+      <c r="N180" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -9745,6 +10317,9 @@
         <v>0</v>
       </c>
       <c r="M181" t="n">
+        <v>-0.003093739999999999</v>
+      </c>
+      <c r="N181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9800,6 +10375,9 @@
         <v>1.760000000000005</v>
       </c>
       <c r="M182" t="n">
+        <v>1.727754800000005</v>
+      </c>
+      <c r="N182" t="n">
         <v>1.41</v>
       </c>
     </row>
@@ -9847,6 +10425,9 @@
         <v>0</v>
       </c>
       <c r="M183" t="n">
+        <v>-0.0320164</v>
+      </c>
+      <c r="N183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9902,6 +10483,9 @@
         <v>-1.180000000000007</v>
       </c>
       <c r="M184" t="n">
+        <v>-1.221233400000007</v>
+      </c>
+      <c r="N184" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -9957,6 +10541,9 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="M185" t="n">
+        <v>0.2585741999999829</v>
+      </c>
+      <c r="N185" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -10012,6 +10599,9 @@
         <v>-0.6200000000000045</v>
       </c>
       <c r="M186" t="n">
+        <v>-0.6615454000000045</v>
+      </c>
+      <c r="N186" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -10067,6 +10657,9 @@
         <v>-0.3199999999999932</v>
       </c>
       <c r="M187" t="n">
+        <v>-0.3615843999999931</v>
+      </c>
+      <c r="N187" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -10114,6 +10707,9 @@
         <v>0</v>
       </c>
       <c r="M188" t="n">
+        <v>-0.0415428</v>
+      </c>
+      <c r="N188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10169,6 +10765,9 @@
         <v>0.7199999999999989</v>
       </c>
       <c r="M189" t="n">
+        <v>0.7072989999999988</v>
+      </c>
+      <c r="N189" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -10224,6 +10823,9 @@
         <v>0.2549999999999955</v>
       </c>
       <c r="M190" t="n">
+        <v>0.2423594499999955</v>
+      </c>
+      <c r="N190" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -10279,6 +10881,9 @@
         <v>-0.1550000000000011</v>
       </c>
       <c r="M191" t="n">
+        <v>-0.1676938500000011</v>
+      </c>
+      <c r="N191" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -10326,6 +10931,9 @@
         <v>0</v>
       </c>
       <c r="M192" t="n">
+        <v>-0.012714</v>
+      </c>
+      <c r="N192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10381,6 +10989,9 @@
         <v>-19.59999999999991</v>
       </c>
       <c r="M193" t="n">
+        <v>-19.95588799999991</v>
+      </c>
+      <c r="N193" t="n">
         <v>-1.44</v>
       </c>
     </row>
@@ -10436,6 +11047,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M194" t="n">
+        <v>-0.1584619999999544</v>
+      </c>
+      <c r="N194" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -10491,6 +11105,9 @@
         <v>-5.200000000000045</v>
       </c>
       <c r="M195" t="n">
+        <v>-5.559164000000044</v>
+      </c>
+      <c r="N195" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -10538,6 +11155,9 @@
         <v>0</v>
       </c>
       <c r="M196" t="n">
+        <v>-0.35984</v>
+      </c>
+      <c r="N196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10593,6 +11213,9 @@
         <v>0.3599999999999994</v>
       </c>
       <c r="M197" t="n">
+        <v>0.3443843999999994</v>
+      </c>
+      <c r="N197" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -10640,6 +11263,9 @@
         <v>0</v>
       </c>
       <c r="M198" t="n">
+        <v>-0.0156624</v>
+      </c>
+      <c r="N198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10695,6 +11321,9 @@
         <v>-0.8799999999999955</v>
       </c>
       <c r="M199" t="n">
+        <v>-0.9049937999999955</v>
+      </c>
+      <c r="N199" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -10742,6 +11371,9 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
+        <v>-0.0251082</v>
+      </c>
+      <c r="N200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10789,6 +11421,9 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
+        <v>-0.0143936</v>
+      </c>
+      <c r="N201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10844,6 +11479,9 @@
         <v>-0.3600000000000136</v>
       </c>
       <c r="M202" t="n">
+        <v>-0.3977832000000136</v>
+      </c>
+      <c r="N202" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -10891,6 +11529,9 @@
         <v>0</v>
       </c>
       <c r="M203" t="n">
+        <v>-0.0377364</v>
+      </c>
+      <c r="N203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10946,6 +11587,9 @@
         <v>0.05499999999999972</v>
       </c>
       <c r="M204" t="n">
+        <v>0.04986356999999973</v>
+      </c>
+      <c r="N204" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -10993,6 +11637,9 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
+        <v>-0.00512928</v>
+      </c>
+      <c r="N205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11048,6 +11695,9 @@
         <v>4.550000000000068</v>
       </c>
       <c r="M206" t="n">
+        <v>4.376664500000068</v>
+      </c>
+      <c r="N206" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -11103,6 +11753,9 @@
         <v>5.450000000000045</v>
       </c>
       <c r="M207" t="n">
+        <v>5.276547500000045</v>
+      </c>
+      <c r="N207" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -11150,6 +11803,9 @@
         <v>0</v>
       </c>
       <c r="M208" t="n">
+        <v>-0.174161</v>
+      </c>
+      <c r="N208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11205,6 +11861,9 @@
         <v>0.5</v>
       </c>
       <c r="M209" t="n">
+        <v>0.4616474</v>
+      </c>
+      <c r="N209" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -11252,6 +11911,9 @@
         <v>0</v>
       </c>
       <c r="M210" t="n">
+        <v>-0.03828759999999999</v>
+      </c>
+      <c r="N210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11307,6 +11969,9 @@
         <v>0.0001000000000000029</v>
       </c>
       <c r="M211" t="n">
+        <v>7.52506000000029e-05</v>
+      </c>
+      <c r="N211" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -11362,6 +12027,9 @@
         <v>0.002100000000000005</v>
       </c>
       <c r="M212" t="n">
+        <v>0.002074990600000005</v>
+      </c>
+      <c r="N212" t="n">
         <v>2.21</v>
       </c>
     </row>
@@ -11409,6 +12077,9 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
+        <v>-2.52824e-05</v>
+      </c>
+      <c r="N213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11464,6 +12135,9 @@
         <v>13.90000000000009</v>
       </c>
       <c r="M214" t="n">
+        <v>13.14793700000009</v>
+      </c>
+      <c r="N214" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -11511,6 +12185,9 @@
         <v>0</v>
       </c>
       <c r="M215" t="n">
+        <v>-0.7502559999999999</v>
+      </c>
+      <c r="N215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11556,10 +12233,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -11605,6 +12291,9 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
+        <v>-0.07355919999999999</v>
+      </c>
+      <c r="N217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11660,6 +12349,9 @@
         <v>-0.3900000000000148</v>
       </c>
       <c r="M218" t="n">
+        <v>-0.4237623000000147</v>
+      </c>
+      <c r="N218" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -11707,6 +12399,9 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
+        <v>-0.03371159999999999</v>
+      </c>
+      <c r="N219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11762,6 +12457,9 @@
         <v>-19</v>
       </c>
       <c r="M220" t="n">
+        <v>-20.69013</v>
+      </c>
+      <c r="N220" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -11817,6 +12515,9 @@
         <v>7</v>
       </c>
       <c r="M221" t="n">
+        <v>5.31325</v>
+      </c>
+      <c r="N221" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -11864,6 +12565,9 @@
         <v>0</v>
       </c>
       <c r="M222" t="n">
+        <v>-1.68584</v>
+      </c>
+      <c r="N222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11919,6 +12623,9 @@
         <v>-2.050000000000011</v>
       </c>
       <c r="M223" t="n">
+        <v>-2.182398500000011</v>
+      </c>
+      <c r="N223" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -11966,6 +12673,9 @@
         <v>0</v>
       </c>
       <c r="M224" t="n">
+        <v>-0.132665</v>
+      </c>
+      <c r="N224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12013,6 +12723,9 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
+        <v>-0.0593762</v>
+      </c>
+      <c r="N225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12068,6 +12781,9 @@
         <v>1.799999999999955</v>
       </c>
       <c r="M226" t="n">
+        <v>1.536073999999955</v>
+      </c>
+      <c r="N226" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -12123,6 +12839,9 @@
         <v>-7.799999999999955</v>
       </c>
       <c r="M227" t="n">
+        <v>-8.065173999999956</v>
+      </c>
+      <c r="N227" t="n">
         <v>-0.77</v>
       </c>
     </row>
@@ -12178,6 +12897,9 @@
         <v>-3.799999999999955</v>
       </c>
       <c r="M228" t="n">
+        <v>-4.065693999999954</v>
+      </c>
+      <c r="N228" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -12225,6 +12947,9 @@
         <v>0</v>
       </c>
       <c r="M229" t="n">
+        <v>-0.2652</v>
+      </c>
+      <c r="N229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12280,6 +13005,9 @@
         <v>-0.06900000000000084</v>
       </c>
       <c r="M230" t="n">
+        <v>-0.07209855000000084</v>
+      </c>
+      <c r="N230" t="n">
         <v>-0.58</v>
       </c>
     </row>
@@ -12327,6 +13055,9 @@
         <v>0</v>
       </c>
       <c r="M231" t="n">
+        <v>-0.00310752</v>
+      </c>
+      <c r="N231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12382,6 +13113,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M232" t="n">
+        <v>-0.05245580000001022</v>
+      </c>
+      <c r="N232" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -12437,6 +13171,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M233" t="n">
+        <v>-0.1124636000000125</v>
+      </c>
+      <c r="N233" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -12492,6 +13229,9 @@
         <v>-0.980000000000004</v>
       </c>
       <c r="M234" t="n">
+        <v>-1.012346600000004</v>
+      </c>
+      <c r="N234" t="n">
         <v>-0.7799999999999999</v>
       </c>
     </row>
@@ -12539,6 +13279,9 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
+        <v>-0.0322192</v>
+      </c>
+      <c r="N235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12594,6 +13337,9 @@
         <v>0.2599999999999909</v>
       </c>
       <c r="M236" t="n">
+        <v>0.2181477999999909</v>
+      </c>
+      <c r="N236" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -12649,6 +13395,9 @@
         <v>-0.9000000000000057</v>
       </c>
       <c r="M237" t="n">
+        <v>-0.9420030000000057</v>
+      </c>
+      <c r="N237" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -12704,6 +13453,9 @@
         <v>-1.219999999999999</v>
       </c>
       <c r="M238" t="n">
+        <v>-1.261961399999999</v>
+      </c>
+      <c r="N238" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -12751,6 +13503,9 @@
         <v>0</v>
       </c>
       <c r="M239" t="n">
+        <v>-0.04180279999999999</v>
+      </c>
+      <c r="N239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12806,6 +13561,9 @@
         <v>-0.1900000000000048</v>
       </c>
       <c r="M240" t="n">
+        <v>-0.2028791000000048</v>
+      </c>
+      <c r="N240" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -12861,6 +13619,9 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="M241" t="n">
+        <v>-0.1128908000000014</v>
+      </c>
+      <c r="N241" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -12916,6 +13677,9 @@
         <v>0.08500000000000085</v>
       </c>
       <c r="M242" t="n">
+        <v>0.07213325000000086</v>
+      </c>
+      <c r="N242" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -12963,6 +13727,9 @@
         <v>0</v>
       </c>
       <c r="M243" t="n">
+        <v>-0.0128557</v>
+      </c>
+      <c r="N243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13018,6 +13785,9 @@
         <v>-0.3000000000000043</v>
       </c>
       <c r="M244" t="n">
+        <v>-0.3159380000000043</v>
+      </c>
+      <c r="N244" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -13065,6 +13835,9 @@
         <v>0</v>
       </c>
       <c r="M245" t="n">
+        <v>-0.015899</v>
+      </c>
+      <c r="N245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13120,6 +13893,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M246" t="n">
+        <v>0.0844094999999994</v>
+      </c>
+      <c r="N246" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -13175,6 +13951,9 @@
         <v>0.06999999999999318</v>
       </c>
       <c r="M247" t="n">
+        <v>0.04441469999999319</v>
+      </c>
+      <c r="N247" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -13230,6 +14009,9 @@
         <v>0.730000000000004</v>
       </c>
       <c r="M248" t="n">
+        <v>0.7045005000000041</v>
+      </c>
+      <c r="N248" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -13277,6 +14059,9 @@
         <v>0</v>
       </c>
       <c r="M249" t="n">
+        <v>-0.0254046</v>
+      </c>
+      <c r="N249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13332,6 +14117,9 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="M250" t="n">
+        <v>0.05538670000000028</v>
+      </c>
+      <c r="N250" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -13387,6 +14175,9 @@
         <v>0.4100000000000037</v>
       </c>
       <c r="M251" t="n">
+        <v>0.3954309000000037</v>
+      </c>
+      <c r="N251" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -13434,6 +14225,9 @@
         <v>0</v>
       </c>
       <c r="M252" t="n">
+        <v>-0.0145158</v>
+      </c>
+      <c r="N252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13489,6 +14283,9 @@
         <v>0.5200000000000102</v>
       </c>
       <c r="M253" t="n">
+        <v>0.4799808000000103</v>
+      </c>
+      <c r="N253" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -13544,6 +14341,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M254" t="n">
+        <v>0.1399366000000068</v>
+      </c>
+      <c r="N254" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -13591,6 +14391,9 @@
         <v>0</v>
       </c>
       <c r="M255" t="n">
+        <v>-0.04004</v>
+      </c>
+      <c r="N255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13646,6 +14449,9 @@
         <v>0.01699999999999946</v>
       </c>
       <c r="M256" t="n">
+        <v>0.01170340999999946</v>
+      </c>
+      <c r="N256" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -13701,6 +14507,9 @@
         <v>-0.0400000000000027</v>
       </c>
       <c r="M257" t="n">
+        <v>-0.0453040000000027</v>
+      </c>
+      <c r="N257" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -13748,6 +14557,9 @@
         <v>0</v>
       </c>
       <c r="M258" t="n">
+        <v>-0.0053092</v>
+      </c>
+      <c r="N258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13803,6 +14615,9 @@
         <v>-1.900000000000091</v>
       </c>
       <c r="M259" t="n">
+        <v>-2.076345000000091</v>
+      </c>
+      <c r="N259" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -13850,6 +14665,9 @@
         <v>0</v>
       </c>
       <c r="M260" t="n">
+        <v>-0.176098</v>
+      </c>
+      <c r="N260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13905,6 +14723,9 @@
         <v>-0.6800000000000068</v>
       </c>
       <c r="M261" t="n">
+        <v>-0.7205054000000067</v>
+      </c>
+      <c r="N261" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -13960,6 +14781,9 @@
         <v>-1.170000000000016</v>
       </c>
       <c r="M262" t="n">
+        <v>-1.210569100000016</v>
+      </c>
+      <c r="N262" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -14007,6 +14831,9 @@
         <v>0</v>
       </c>
       <c r="M263" t="n">
+        <v>-0.0407212</v>
+      </c>
+      <c r="N263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14062,6 +14889,9 @@
         <v>-0.0001599999999999935</v>
       </c>
       <c r="M264" t="n">
+        <v>-0.0001853655999999935</v>
+      </c>
+      <c r="N264" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -14117,6 +14947,9 @@
         <v>0.0002800000000000025</v>
       </c>
       <c r="M265" t="n">
+        <v>0.0002545772000000025</v>
+      </c>
+      <c r="N265" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -14172,6 +15005,9 @@
         <v>0.0001799999999999996</v>
       </c>
       <c r="M266" t="n">
+        <v>0.0001545641999999996</v>
+      </c>
+      <c r="N266" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -14227,6 +15063,9 @@
         <v>-2.000000000000612e-05</v>
       </c>
       <c r="M267" t="n">
+        <v>-4.540980000000612e-05</v>
+      </c>
+      <c r="N267" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -14274,6 +15113,9 @@
         <v>0</v>
       </c>
       <c r="M268" t="n">
+        <v>-2.54072e-05</v>
+      </c>
+      <c r="N268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14329,6 +15171,9 @@
         <v>7</v>
       </c>
       <c r="M269" t="n">
+        <v>6.236484</v>
+      </c>
+      <c r="N269" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -14384,6 +15229,9 @@
         <v>-9.849999999999909</v>
       </c>
       <c r="M270" t="n">
+        <v>-10.61570649999991</v>
+      </c>
+      <c r="N270" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -14431,6 +15279,9 @@
         <v>0</v>
       </c>
       <c r="M271" t="n">
+        <v>-0.7669869999999999</v>
+      </c>
+      <c r="N271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14476,10 +15327,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -14533,6 +15393,9 @@
         <v>-0.6700000000000159</v>
       </c>
       <c r="M273" t="n">
+        <v>-0.742356700000016</v>
+      </c>
+      <c r="N273" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -14588,6 +15451,9 @@
         <v>0.5699999999999932</v>
       </c>
       <c r="M274" t="n">
+        <v>0.4974820999999932</v>
+      </c>
+      <c r="N274" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -14635,6 +15501,9 @@
         <v>0</v>
       </c>
       <c r="M275" t="n">
+        <v>-0.07259199999999999</v>
+      </c>
+      <c r="N275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14690,6 +15559,9 @@
         <v>-0.6700000000000159</v>
       </c>
       <c r="M276" t="n">
+        <v>-0.742356700000016</v>
+      </c>
+      <c r="N276" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -14745,6 +15617,9 @@
         <v>0.5699999999999932</v>
       </c>
       <c r="M277" t="n">
+        <v>0.4974820999999932</v>
+      </c>
+      <c r="N277" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -14800,6 +15675,9 @@
         <v>-0.4000000000000341</v>
       </c>
       <c r="M278" t="n">
+        <v>-0.4726440000000341</v>
+      </c>
+      <c r="N278" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -14855,6 +15733,9 @@
         <v>0.3899999999999864</v>
       </c>
       <c r="M279" t="n">
+        <v>0.3172532999999864</v>
+      </c>
+      <c r="N279" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -14910,6 +15791,9 @@
         <v>-0.6100000000000136</v>
       </c>
       <c r="M280" t="n">
+        <v>-0.6828767000000137</v>
+      </c>
+      <c r="N280" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -14957,6 +15841,9 @@
         <v>0</v>
       </c>
       <c r="M281" t="n">
+        <v>-0.07295599999999999</v>
+      </c>
+      <c r="N281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15012,6 +15899,9 @@
         <v>-0.7700000000000102</v>
       </c>
       <c r="M282" t="n">
+        <v>-0.8033801000000103</v>
+      </c>
+      <c r="N282" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -15059,6 +15949,9 @@
         <v>0</v>
       </c>
       <c r="M283" t="n">
+        <v>-0.0334802</v>
+      </c>
+      <c r="N283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15114,6 +16007,9 @@
         <v>-47</v>
       </c>
       <c r="M284" t="n">
+        <v>-48.65243</v>
+      </c>
+      <c r="N284" t="n">
         <v>-0.74</v>
       </c>
     </row>
@@ -15169,6 +16065,9 @@
         <v>-7</v>
       </c>
       <c r="M285" t="n">
+        <v>-8.64723</v>
+      </c>
+      <c r="N285" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -15224,6 +16123,9 @@
         <v>35</v>
       </c>
       <c r="M286" t="n">
+        <v>33.34731</v>
+      </c>
+      <c r="N286" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -15279,6 +16181,9 @@
         <v>-41</v>
       </c>
       <c r="M287" t="n">
+        <v>-42.66257</v>
+      </c>
+      <c r="N287" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -15326,6 +16231,9 @@
         <v>0</v>
       </c>
       <c r="M288" t="n">
+        <v>-1.6679</v>
+      </c>
+      <c r="N288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15381,6 +16289,9 @@
         <v>-2.350000000000023</v>
       </c>
       <c r="M289" t="n">
+        <v>-2.479980500000023</v>
+      </c>
+      <c r="N289" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -15428,6 +16339,9 @@
         <v>0</v>
       </c>
       <c r="M290" t="n">
+        <v>-0.129675</v>
+      </c>
+      <c r="N290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15475,6 +16389,9 @@
         <v>0</v>
       </c>
       <c r="M291" t="n">
+        <v>-0.05878599999999999</v>
+      </c>
+      <c r="N291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15522,6 +16439,9 @@
         <v>0</v>
       </c>
       <c r="M292" t="n">
+        <v>-0.26312</v>
+      </c>
+      <c r="N292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15577,6 +16497,9 @@
         <v>-0.02200000000000024</v>
       </c>
       <c r="M293" t="n">
+        <v>-0.02510180000000024</v>
+      </c>
+      <c r="N293" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -15624,6 +16547,9 @@
         <v>0</v>
       </c>
       <c r="M294" t="n">
+        <v>-0.00309894</v>
+      </c>
+      <c r="N294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15679,6 +16605,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M295" t="n">
+        <v>0.1478978000000068</v>
+      </c>
+      <c r="N295" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -15734,6 +16663,9 @@
         <v>-0.8400000000000034</v>
       </c>
       <c r="M296" t="n">
+        <v>-0.8722348000000034</v>
+      </c>
+      <c r="N296" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -15781,6 +16713,9 @@
         <v>0</v>
       </c>
       <c r="M297" t="n">
+        <v>-0.032344</v>
+      </c>
+      <c r="N297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15836,6 +16771,9 @@
         <v>-0.7800000000000011</v>
       </c>
       <c r="M298" t="n">
+        <v>-0.8213062000000012</v>
+      </c>
+      <c r="N298" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -15883,6 +16821,9 @@
         <v>0</v>
       </c>
       <c r="M299" t="n">
+        <v>-0.0414076</v>
+      </c>
+      <c r="N299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15938,6 +16879,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M300" t="n">
+        <v>0.04725350000000227</v>
+      </c>
+      <c r="N300" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -15985,6 +16929,9 @@
         <v>0</v>
       </c>
       <c r="M301" t="n">
+        <v>-0.0127387</v>
+      </c>
+      <c r="N301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16040,6 +16987,9 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="M302" t="n">
+        <v>0.0941074999999994</v>
+      </c>
+      <c r="N302" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -16095,6 +17045,9 @@
         <v>-0.3200000000000003</v>
       </c>
       <c r="M303" t="n">
+        <v>-0.3358366000000003</v>
+      </c>
+      <c r="N303" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -16142,6 +17095,9 @@
         <v>0</v>
       </c>
       <c r="M304" t="n">
+        <v>-0.015795</v>
+      </c>
+      <c r="N304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16197,6 +17153,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M305" t="n">
+        <v>0.0548371999999983</v>
+      </c>
+      <c r="N305" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -16252,6 +17211,9 @@
         <v>0.1300000000000097</v>
       </c>
       <c r="M306" t="n">
+        <v>0.1048307000000097</v>
+      </c>
+      <c r="N306" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -16307,6 +17269,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M307" t="n">
+        <v>-0.09519529999999317</v>
+      </c>
+      <c r="N307" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -16354,6 +17319,9 @@
         <v>0</v>
       </c>
       <c r="M308" t="n">
+        <v>-0.0252044</v>
+      </c>
+      <c r="N308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16401,6 +17369,9 @@
         <v>0</v>
       </c>
       <c r="M309" t="n">
+        <v>-0.0144404</v>
+      </c>
+      <c r="N309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16456,6 +17427,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M310" t="n">
+        <v>0.1810285999999989</v>
+      </c>
+      <c r="N310" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -16511,6 +17485,9 @@
         <v>-0.3600000000000136</v>
       </c>
       <c r="M311" t="n">
+        <v>-0.3988960000000136</v>
+      </c>
+      <c r="N311" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -16558,6 +17535,9 @@
         <v>0</v>
       </c>
       <c r="M312" t="n">
+        <v>-0.03884919999999999</v>
+      </c>
+      <c r="N312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16613,6 +17593,9 @@
         <v>-0.00159999999999999</v>
       </c>
       <c r="M313" t="n">
+        <v>-0.00167667399999999</v>
+      </c>
+      <c r="N313" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -16660,6 +17643,9 @@
         <v>0</v>
       </c>
       <c r="M314" t="n">
+        <v>-7.6882e-05</v>
+      </c>
+      <c r="N314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16715,6 +17701,9 @@
         <v>0.09799999999999898</v>
       </c>
       <c r="M315" t="n">
+        <v>0.09282261999999898</v>
+      </c>
+      <c r="N315" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -16762,6 +17751,9 @@
         <v>0</v>
       </c>
       <c r="M316" t="n">
+        <v>-0.005190119999999999</v>
+      </c>
+      <c r="N316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16809,6 +17801,9 @@
         <v>0</v>
       </c>
       <c r="M317" t="n">
+        <v>-0.174512</v>
+      </c>
+      <c r="N317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16864,6 +17859,9 @@
         <v>-0.9499999999999886</v>
       </c>
       <c r="M318" t="n">
+        <v>-0.9890740999999886</v>
+      </c>
+      <c r="N318" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -16919,6 +17917,9 @@
         <v>2.230000000000018</v>
       </c>
       <c r="M319" t="n">
+        <v>2.190512500000018</v>
+      </c>
+      <c r="N319" t="n">
         <v>1.48</v>
       </c>
     </row>
@@ -16966,6 +17967,9 @@
         <v>0</v>
       </c>
       <c r="M320" t="n">
+        <v>-0.0397774</v>
+      </c>
+      <c r="N320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17011,10 +18015,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -17068,6 +18081,9 @@
         <v>0.6100000000000136</v>
       </c>
       <c r="M322" t="n">
+        <v>0.5330933000000136</v>
+      </c>
+      <c r="N322" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -17115,6 +18131,9 @@
         <v>0</v>
       </c>
       <c r="M323" t="n">
+        <v>-0.076986</v>
+      </c>
+      <c r="N323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17162,6 +18181,9 @@
         <v>0</v>
       </c>
       <c r="M324" t="n">
+        <v>-0.0353652</v>
+      </c>
+      <c r="N324" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17209,6 +18231,9 @@
         <v>0</v>
       </c>
       <c r="M325" t="n">
+        <v>-1.8096</v>
+      </c>
+      <c r="N325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17256,6 +18281,9 @@
         <v>0</v>
       </c>
       <c r="M326" t="n">
+        <v>-0.284648</v>
+      </c>
+      <c r="N326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17303,6 +18331,9 @@
         <v>0</v>
       </c>
       <c r="M327" t="n">
+        <v>-0.0335556</v>
+      </c>
+      <c r="N327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17350,6 +18381,9 @@
         <v>0</v>
       </c>
       <c r="M328" t="n">
+        <v>-0.04386199999999999</v>
+      </c>
+      <c r="N328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17397,6 +18431,9 @@
         <v>0</v>
       </c>
       <c r="M329" t="n">
+        <v>-0.0139061</v>
+      </c>
+      <c r="N329" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17444,6 +18481,9 @@
         <v>0</v>
       </c>
       <c r="M330" t="n">
+        <v>-0.380016</v>
+      </c>
+      <c r="N330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17491,6 +18531,9 @@
         <v>0</v>
       </c>
       <c r="M331" t="n">
+        <v>-0.0166894</v>
+      </c>
+      <c r="N331" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17538,6 +18581,9 @@
         <v>0</v>
       </c>
       <c r="M332" t="n">
+        <v>-0.015418</v>
+      </c>
+      <c r="N332" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17585,6 +18631,9 @@
         <v>0</v>
       </c>
       <c r="M333" t="n">
+        <v>-0.023452</v>
+      </c>
+      <c r="N333" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17640,6 +18689,9 @@
         <v>-0.3500000000000227</v>
       </c>
       <c r="M334" t="n">
+        <v>-0.4441005000000227</v>
+      </c>
+      <c r="N334" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -17687,6 +18739,9 @@
         <v>0</v>
       </c>
       <c r="M335" t="n">
+        <v>-0.09414599999999999</v>
+      </c>
+      <c r="N335" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17734,6 +18789,9 @@
         <v>0</v>
       </c>
       <c r="M336" t="n">
+        <v>-0.81458</v>
+      </c>
+      <c r="N336" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17781,6 +18839,9 @@
         <v>0</v>
       </c>
       <c r="M337" t="n">
+        <v>-0.009887799999999999</v>
+      </c>
+      <c r="N337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17836,6 +18897,9 @@
         <v>0.6999999999999318</v>
       </c>
       <c r="M338" t="n">
+        <v>0.5276069999999319</v>
+      </c>
+      <c r="N338" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -17883,6 +18947,9 @@
         <v>0</v>
       </c>
       <c r="M339" t="n">
+        <v>-0.172302</v>
+      </c>
+      <c r="N339" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17928,10 +18995,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -17985,6 +19061,9 @@
         <v>0.8799999999999955</v>
       </c>
       <c r="M341" t="n">
+        <v>0.8034169999999954</v>
+      </c>
+      <c r="N341" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -18032,6 +19111,9 @@
         <v>0</v>
       </c>
       <c r="M342" t="n">
+        <v>-0.0766974</v>
+      </c>
+      <c r="N342" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18087,6 +19169,9 @@
         <v>0.6500000000000057</v>
       </c>
       <c r="M343" t="n">
+        <v>0.6148987000000057</v>
+      </c>
+      <c r="N343" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -18142,6 +19227,9 @@
         <v>0.7699999999999818</v>
       </c>
       <c r="M344" t="n">
+        <v>0.7348830999999818</v>
+      </c>
+      <c r="N344" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -18189,6 +19277,9 @@
         <v>0</v>
       </c>
       <c r="M345" t="n">
+        <v>-0.03521699999999999</v>
+      </c>
+      <c r="N345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18244,6 +19335,9 @@
         <v>-28</v>
       </c>
       <c r="M346" t="n">
+        <v>-29.80635</v>
+      </c>
+      <c r="N346" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -18291,6 +19385,9 @@
         <v>0</v>
       </c>
       <c r="M347" t="n">
+        <v>-1.80271</v>
+      </c>
+      <c r="N347" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18346,6 +19443,9 @@
         <v>-0.6000000000001364</v>
       </c>
       <c r="M348" t="n">
+        <v>-0.8851940000001364</v>
+      </c>
+      <c r="N348" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -18393,6 +19493,9 @@
         <v>0</v>
       </c>
       <c r="M349" t="n">
+        <v>-0.2851159999999999</v>
+      </c>
+      <c r="N349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18440,6 +19543,9 @@
         <v>0</v>
       </c>
       <c r="M350" t="n">
+        <v>-0.03366479999999999</v>
+      </c>
+      <c r="N350" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18495,6 +19601,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M351" t="n">
+        <v>-0.1050346000000023</v>
+      </c>
+      <c r="N351" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -18542,6 +19651,9 @@
         <v>0</v>
       </c>
       <c r="M352" t="n">
+        <v>-0.0450268</v>
+      </c>
+      <c r="N352" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18589,6 +19701,9 @@
         <v>0</v>
       </c>
       <c r="M353" t="n">
+        <v>-0.0136331</v>
+      </c>
+      <c r="N353" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18644,6 +19759,9 @@
         <v>-10.60000000000014</v>
       </c>
       <c r="M354" t="n">
+        <v>-10.97801400000014</v>
+      </c>
+      <c r="N354" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -18699,6 +19817,9 @@
         <v>0.3999999999998636</v>
       </c>
       <c r="M355" t="n">
+        <v>0.0234159999998636</v>
+      </c>
+      <c r="N355" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -18754,6 +19875,9 @@
         <v>-25.40000000000009</v>
       </c>
       <c r="M356" t="n">
+        <v>-25.77323000000009</v>
+      </c>
+      <c r="N356" t="n">
         <v>-1.75</v>
       </c>
     </row>
@@ -18801,6 +19925,9 @@
         <v>0</v>
       </c>
       <c r="M357" t="n">
+        <v>-0.369928</v>
+      </c>
+      <c r="N357" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18856,6 +19983,9 @@
         <v>0.2299999999999969</v>
       </c>
       <c r="M358" t="n">
+        <v>0.2134444999999969</v>
+      </c>
+      <c r="N358" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -18903,6 +20033,9 @@
         <v>0</v>
       </c>
       <c r="M359" t="n">
+        <v>-0.0165854</v>
+      </c>
+      <c r="N359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18950,6 +20083,9 @@
         <v>0</v>
       </c>
       <c r="M360" t="n">
+        <v>-0.0151996</v>
+      </c>
+      <c r="N360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18997,6 +20133,9 @@
         <v>0</v>
       </c>
       <c r="M361" t="n">
+        <v>-0.037622</v>
+      </c>
+      <c r="N361" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19052,6 +20191,9 @@
         <v>-1.109999999999999</v>
       </c>
       <c r="M362" t="n">
+        <v>-1.125042299999999</v>
+      </c>
+      <c r="N362" t="n">
         <v>-1.9</v>
       </c>
     </row>
@@ -19099,6 +20241,9 @@
         <v>0</v>
       </c>
       <c r="M363" t="n">
+        <v>-0.014898</v>
+      </c>
+      <c r="N363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19146,6 +20291,9 @@
         <v>0</v>
       </c>
       <c r="M364" t="n">
+        <v>-0.09996999999999999</v>
+      </c>
+      <c r="N364" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19201,6 +20349,9 @@
         <v>0.002299999999999996</v>
       </c>
       <c r="M365" t="n">
+        <v>0.002273981799999996</v>
+      </c>
+      <c r="N365" t="n">
         <v>2.27</v>
       </c>
     </row>
@@ -19248,6 +20399,9 @@
         <v>0</v>
       </c>
       <c r="M366" t="n">
+        <v>-2.57192e-05</v>
+      </c>
+      <c r="N366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19303,6 +20457,9 @@
         <v>-0.6500000000000909</v>
       </c>
       <c r="M367" t="n">
+        <v>-1.464053500000091</v>
+      </c>
+      <c r="N367" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -19358,6 +20515,9 @@
         <v>50.20000000000027</v>
       </c>
       <c r="M368" t="n">
+        <v>49.39255700000027</v>
+      </c>
+      <c r="N368" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -19405,6 +20565,9 @@
         <v>0</v>
       </c>
       <c r="M369" t="n">
+        <v>-0.8009169999999999</v>
+      </c>
+      <c r="N369" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19460,6 +20623,9 @@
         <v>-6</v>
       </c>
       <c r="M370" t="n">
+        <v>-6.17095</v>
+      </c>
+      <c r="N370" t="n">
         <v>-0.91</v>
       </c>
     </row>
@@ -19507,6 +20673,9 @@
         <v>0</v>
       </c>
       <c r="M371" t="n">
+        <v>-0.17017</v>
+      </c>
+      <c r="N371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19552,10 +20721,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -19609,6 +20787,9 @@
         <v>-1.019999999999982</v>
       </c>
       <c r="M373" t="n">
+        <v>-1.094601799999982</v>
+      </c>
+      <c r="N373" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -19656,6 +20837,9 @@
         <v>0</v>
       </c>
       <c r="M374" t="n">
+        <v>-0.07473439999999999</v>
+      </c>
+      <c r="N374" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19711,6 +20895,9 @@
         <v>0.3100000000000023</v>
       </c>
       <c r="M375" t="n">
+        <v>0.2759543000000023</v>
+      </c>
+      <c r="N375" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -19766,6 +20953,9 @@
         <v>-2.159999999999997</v>
       </c>
       <c r="M376" t="n">
+        <v>-2.194366799999997</v>
+      </c>
+      <c r="N376" t="n">
         <v>-1.65</v>
       </c>
     </row>
@@ -19813,6 +21003,9 @@
         <v>0</v>
       </c>
       <c r="M377" t="n">
+        <v>-0.03464759999999999</v>
+      </c>
+      <c r="N377" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19868,6 +21061,9 @@
         <v>20</v>
       </c>
       <c r="M378" t="n">
+        <v>18.25033</v>
+      </c>
+      <c r="N378" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -19915,6 +21111,9 @@
         <v>0</v>
       </c>
       <c r="M379" t="n">
+        <v>-1.75227</v>
+      </c>
+      <c r="N379" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19970,6 +21169,9 @@
         <v>-4.5</v>
       </c>
       <c r="M380" t="n">
+        <v>-4.632053999999999</v>
+      </c>
+      <c r="N380" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -20025,6 +21227,9 @@
         <v>1.450000000000045</v>
       </c>
       <c r="M381" t="n">
+        <v>1.317172500000045</v>
+      </c>
+      <c r="N381" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -20080,6 +21285,9 @@
         <v>1.550000000000011</v>
       </c>
       <c r="M382" t="n">
+        <v>1.417185500000011</v>
+      </c>
+      <c r="N382" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -20135,6 +21343,9 @@
         <v>0.9499999999999886</v>
       </c>
       <c r="M383" t="n">
+        <v>0.8172634999999886</v>
+      </c>
+      <c r="N383" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -20190,6 +21401,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M384" t="n">
+        <v>-0.1828665000000114</v>
+      </c>
+      <c r="N384" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -20245,6 +21459,9 @@
         <v>0.3000000000000114</v>
       </c>
       <c r="M385" t="n">
+        <v>0.1670880000000114</v>
+      </c>
+      <c r="N385" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -20292,6 +21509,9 @@
         <v>0</v>
       </c>
       <c r="M386" t="n">
+        <v>-0.132951</v>
+      </c>
+      <c r="N386" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20347,6 +21567,9 @@
         <v>3.799999999999955</v>
       </c>
       <c r="M387" t="n">
+        <v>3.530873999999955</v>
+      </c>
+      <c r="N387" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -20402,6 +21625,9 @@
         <v>-13.59999999999991</v>
       </c>
       <c r="M388" t="n">
+        <v>-13.87138799999991</v>
+      </c>
+      <c r="N388" t="n">
         <v>-1.31</v>
       </c>
     </row>
@@ -20457,6 +21683,9 @@
         <v>-1.199999999999818</v>
       </c>
       <c r="M389" t="n">
+        <v>-1.472999999999818</v>
+      </c>
+      <c r="N389" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -20504,6 +21733,9 @@
         <v>0</v>
       </c>
       <c r="M390" t="n">
+        <v>-0.272844</v>
+      </c>
+      <c r="N390" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20551,6 +21783,9 @@
         <v>0</v>
       </c>
       <c r="M391" t="n">
+        <v>-0.0325208</v>
+      </c>
+      <c r="N391" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20606,6 +21841,9 @@
         <v>-0.3400000000000034</v>
       </c>
       <c r="M392" t="n">
+        <v>-0.3825126000000034</v>
+      </c>
+      <c r="N392" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -20661,6 +21899,9 @@
         <v>0.2599999999999909</v>
       </c>
       <c r="M393" t="n">
+        <v>0.2174093999999909</v>
+      </c>
+      <c r="N393" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -20716,6 +21957,9 @@
         <v>-1.960000000000008</v>
       </c>
       <c r="M394" t="n">
+        <v>-2.002879200000008</v>
+      </c>
+      <c r="N394" t="n">
         <v>-1.2</v>
       </c>
     </row>
@@ -20771,6 +22015,9 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="M395" t="n">
+        <v>0.2568269999999829</v>
+      </c>
+      <c r="N395" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -20818,6 +22065,9 @@
         <v>0</v>
       </c>
       <c r="M396" t="n">
+        <v>-0.04321199999999999</v>
+      </c>
+      <c r="N396" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20873,6 +22123,9 @@
         <v>-0.1450000000000031</v>
       </c>
       <c r="M397" t="n">
+        <v>-0.1583763500000031</v>
+      </c>
+      <c r="N397" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -20920,6 +22173,9 @@
         <v>0</v>
       </c>
       <c r="M398" t="n">
+        <v>-0.0133952</v>
+      </c>
+      <c r="N398" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20975,6 +22231,9 @@
         <v>10.40000000000009</v>
       </c>
       <c r="M399" t="n">
+        <v>10.03267200000009</v>
+      </c>
+      <c r="N399" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -21030,6 +22289,9 @@
         <v>-2</v>
       </c>
       <c r="M400" t="n">
+        <v>-2.36894</v>
+      </c>
+      <c r="N400" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -21085,6 +22347,9 @@
         <v>1</v>
       </c>
       <c r="M401" t="n">
+        <v>0.6306700000000001</v>
+      </c>
+      <c r="N401" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -21140,6 +22405,9 @@
         <v>2.599999999999909</v>
       </c>
       <c r="M402" t="n">
+        <v>2.230877999999909</v>
+      </c>
+      <c r="N402" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -21187,6 +22455,9 @@
         <v>0</v>
       </c>
       <c r="M403" t="n">
+        <v>-0.368784</v>
+      </c>
+      <c r="N403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21242,6 +22513,9 @@
         <v>0.8800000000000026</v>
       </c>
       <c r="M404" t="n">
+        <v>0.8643090000000025</v>
+      </c>
+      <c r="N404" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -21297,6 +22571,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M405" t="n">
+        <v>-0.02580669999999801</v>
+      </c>
+      <c r="N405" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -21344,6 +22621,9 @@
         <v>0</v>
       </c>
       <c r="M406" t="n">
+        <v>-0.015808</v>
+      </c>
+      <c r="N406" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21399,6 +22679,9 @@
         <v>0.9600000000000009</v>
       </c>
       <c r="M407" t="n">
+        <v>0.9453386000000008</v>
+      </c>
+      <c r="N407" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -21446,6 +22729,9 @@
         <v>0</v>
       </c>
       <c r="M408" t="n">
+        <v>-0.0147862</v>
+      </c>
+      <c r="N408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21501,6 +22787,9 @@
         <v>0.4000000000000057</v>
       </c>
       <c r="M409" t="n">
+        <v>0.3632932000000057</v>
+      </c>
+      <c r="N409" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -21548,6 +22837,9 @@
         <v>0</v>
       </c>
       <c r="M410" t="n">
+        <v>-0.03675879999999999</v>
+      </c>
+      <c r="N410" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21603,6 +22895,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M411" t="n">
+        <v>0.1463317999999966</v>
+      </c>
+      <c r="N411" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -21658,6 +22953,9 @@
         <v>-1.200000000000003</v>
       </c>
       <c r="M412" t="n">
+        <v>-1.213845000000003</v>
+      </c>
+      <c r="N412" t="n">
         <v>-2.28</v>
       </c>
     </row>
@@ -21705,6 +23003,9 @@
         <v>0</v>
       </c>
       <c r="M413" t="n">
+        <v>-0.014001</v>
+      </c>
+      <c r="N413" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21760,6 +23061,9 @@
         <v>0.03000000000002956</v>
       </c>
       <c r="M414" t="n">
+        <v>-0.06547589999997043</v>
+      </c>
+      <c r="N414" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -21815,6 +23119,9 @@
         <v>0.5900000000000318</v>
       </c>
       <c r="M415" t="n">
+        <v>0.4944513000000318</v>
+      </c>
+      <c r="N415" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -21862,6 +23169,9 @@
         <v>0</v>
       </c>
       <c r="M416" t="n">
+        <v>-0.0956254</v>
+      </c>
+      <c r="N416" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21917,6 +23227,9 @@
         <v>0.0002999999999999947</v>
       </c>
       <c r="M417" t="n">
+        <v>0.0002750321999999947</v>
+      </c>
+      <c r="N417" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -21972,6 +23285,9 @@
         <v>0</v>
       </c>
       <c r="M418" t="n">
+        <v>-2.50068e-05</v>
+      </c>
+      <c r="N418" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22027,6 +23343,9 @@
         <v>0.0006600000000000078</v>
       </c>
       <c r="M419" t="n">
+        <v>0.0006349074000000078</v>
+      </c>
+      <c r="N419" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -22082,6 +23401,9 @@
         <v>-0.0001199999999999951</v>
       </c>
       <c r="M420" t="n">
+        <v>-0.0001451939999999951</v>
+      </c>
+      <c r="N420" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -22129,6 +23451,9 @@
         <v>0</v>
       </c>
       <c r="M421" t="n">
+        <v>-2.52096e-05</v>
+      </c>
+      <c r="N421" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22184,6 +23509,9 @@
         <v>8.200000000000273</v>
       </c>
       <c r="M422" t="n">
+        <v>7.424017000000273</v>
+      </c>
+      <c r="N422" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -22239,6 +23567,9 @@
         <v>22.25</v>
       </c>
       <c r="M423" t="n">
+        <v>21.4721905</v>
+      </c>
+      <c r="N423" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -22294,6 +23625,9 @@
         <v>-10.75</v>
       </c>
       <c r="M424" t="n">
+        <v>-11.5320995</v>
+      </c>
+      <c r="N424" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -22349,6 +23683,9 @@
         <v>0.1000000000003638</v>
       </c>
       <c r="M425" t="n">
+        <v>-0.6835099999996361</v>
+      </c>
+      <c r="N425" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22404,6 +23741,9 @@
         <v>-2.099999999999909</v>
       </c>
       <c r="M426" t="n">
+        <v>-2.883795999999909</v>
+      </c>
+      <c r="N426" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -22451,6 +23791,9 @@
         <v>0</v>
       </c>
       <c r="M427" t="n">
+        <v>-0.7840689999999999</v>
+      </c>
+      <c r="N427" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22506,6 +23849,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M428" t="n">
+        <v>-0.04894139999999915</v>
+      </c>
+      <c r="N428" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -22553,6 +23899,9 @@
         <v>0</v>
       </c>
       <c r="M429" t="n">
+        <v>-0.008946599999999999</v>
+      </c>
+      <c r="N429" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22608,6 +23957,9 @@
         <v>2.200000000000045</v>
       </c>
       <c r="M430" t="n">
+        <v>2.032040000000045</v>
+      </c>
+      <c r="N430" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -22663,6 +24015,9 @@
         <v>-1.699999999999932</v>
       </c>
       <c r="M431" t="n">
+        <v>-1.868466999999932</v>
+      </c>
+      <c r="N431" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -22718,6 +24073,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M432" t="n">
+        <v>-0.06870099999997728</v>
+      </c>
+      <c r="N432" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -22765,6 +24123,9 @@
         <v>0</v>
       </c>
       <c r="M433" t="n">
+        <v>-0.168714</v>
+      </c>
+      <c r="N433" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22810,10 +24171,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
-      <c r="M434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -22859,6 +24229,9 @@
         <v>0</v>
       </c>
       <c r="M435" t="n">
+        <v>-0.07576399999999998</v>
+      </c>
+      <c r="N435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22914,6 +24287,9 @@
         <v>-0.2299999999999898</v>
       </c>
       <c r="M436" t="n">
+        <v>-0.2644538999999898</v>
+      </c>
+      <c r="N436" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -22961,6 +24337,9 @@
         <v>0</v>
       </c>
       <c r="M437" t="n">
+        <v>-0.034424</v>
+      </c>
+      <c r="N437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23016,6 +24395,9 @@
         <v>0</v>
       </c>
       <c r="M438" t="n">
+        <v>-1.76917</v>
+      </c>
+      <c r="N438" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23063,6 +24445,9 @@
         <v>0</v>
       </c>
       <c r="M439" t="n">
+        <v>-1.76917</v>
+      </c>
+      <c r="N439" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23110,6 +24495,9 @@
         <v>0</v>
       </c>
       <c r="M440" t="n">
+        <v>-0.272012</v>
+      </c>
+      <c r="N440" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23157,6 +24545,9 @@
         <v>0</v>
       </c>
       <c r="M441" t="n">
+        <v>-0.0331084</v>
+      </c>
+      <c r="N441" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23204,6 +24595,9 @@
         <v>0</v>
       </c>
       <c r="M442" t="n">
+        <v>-0.0432432</v>
+      </c>
+      <c r="N442" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23259,6 +24653,9 @@
         <v>-0.2700000000000031</v>
       </c>
       <c r="M443" t="n">
+        <v>-0.2834173000000031</v>
+      </c>
+      <c r="N443" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -23306,6 +24703,9 @@
         <v>0</v>
       </c>
       <c r="M444" t="n">
+        <v>-0.0133822</v>
+      </c>
+      <c r="N444" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23361,6 +24761,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M445" t="n">
+        <v>-0.1157585999999943</v>
+      </c>
+      <c r="N445" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -23416,6 +24819,9 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="M446" t="n">
+        <v>0.01425830000000114</v>
+      </c>
+      <c r="N446" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -23463,6 +24869,9 @@
         <v>0</v>
       </c>
       <c r="M447" t="n">
+        <v>-0.0157378</v>
+      </c>
+      <c r="N447" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23510,6 +24919,9 @@
         <v>0</v>
       </c>
       <c r="M448" t="n">
+        <v>-0.0367536</v>
+      </c>
+      <c r="N448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23557,6 +24969,9 @@
         <v>0</v>
       </c>
       <c r="M449" t="n">
+        <v>-0.0140374</v>
+      </c>
+      <c r="N449" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23604,6 +25019,9 @@
         <v>0</v>
       </c>
       <c r="M450" t="n">
+        <v>-0.09754159999999999</v>
+      </c>
+      <c r="N450" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23659,6 +25077,9 @@
         <v>-0.1799999999999997</v>
       </c>
       <c r="M451" t="n">
+        <v>-0.1889725999999997</v>
+      </c>
+      <c r="N451" t="n">
         <v>-0.52</v>
       </c>
     </row>
@@ -23706,6 +25127,9 @@
         <v>0</v>
       </c>
       <c r="M452" t="n">
+        <v>-0.008949199999999999</v>
+      </c>
+      <c r="N452" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23751,10 +25175,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
-      <c r="M453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -23808,6 +25241,9 @@
         <v>-0.8199999999999932</v>
       </c>
       <c r="M454" t="n">
+        <v>-0.8952907999999932</v>
+      </c>
+      <c r="N454" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -23855,6 +25291,9 @@
         <v>0</v>
       </c>
       <c r="M455" t="n">
+        <v>-0.07518419999999999</v>
+      </c>
+      <c r="N455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23910,6 +25349,9 @@
         <v>-0.7400000000000091</v>
       </c>
       <c r="M456" t="n">
+        <v>-0.7746138000000091</v>
+      </c>
+      <c r="N456" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -23965,6 +25407,9 @@
         <v>-0.6299999999999955</v>
       </c>
       <c r="M457" t="n">
+        <v>-0.6645994999999955</v>
+      </c>
+      <c r="N457" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -24012,6 +25457,9 @@
         <v>0</v>
       </c>
       <c r="M458" t="n">
+        <v>-0.03468139999999999</v>
+      </c>
+      <c r="N458" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24059,6 +25507,9 @@
         <v>0</v>
       </c>
       <c r="M459" t="n">
+        <v>-1.76748</v>
+      </c>
+      <c r="N459" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24106,6 +25557,9 @@
         <v>0</v>
       </c>
       <c r="M460" t="n">
+        <v>-0.133419</v>
+      </c>
+      <c r="N460" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24161,6 +25615,9 @@
         <v>1.200000000000045</v>
       </c>
       <c r="M461" t="n">
+        <v>0.9298080000000452</v>
+      </c>
+      <c r="N461" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -24208,6 +25665,9 @@
         <v>0</v>
       </c>
       <c r="M462" t="n">
+        <v>-0.2700359999999999</v>
+      </c>
+      <c r="N462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24263,6 +25723,9 @@
         <v>-0.01399999999999935</v>
       </c>
       <c r="M463" t="n">
+        <v>-0.01710829999999935</v>
+      </c>
+      <c r="N463" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -24310,6 +25773,9 @@
         <v>0</v>
       </c>
       <c r="M464" t="n">
+        <v>-0.00311012</v>
+      </c>
+      <c r="N464" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24357,6 +25823,9 @@
         <v>0</v>
       </c>
       <c r="M465" t="n">
+        <v>-0.03366479999999999</v>
+      </c>
+      <c r="N465" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24404,6 +25873,9 @@
         <v>0</v>
       </c>
       <c r="M466" t="n">
+        <v>-0.0429312</v>
+      </c>
+      <c r="N466" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24459,6 +25931,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M467" t="n">
+        <v>0.02673479999999915</v>
+      </c>
+      <c r="N467" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -24506,6 +25981,9 @@
         <v>0</v>
       </c>
       <c r="M468" t="n">
+        <v>-0.01326</v>
+      </c>
+      <c r="N468" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24561,6 +26039,9 @@
         <v>2.200000000000045</v>
       </c>
       <c r="M469" t="n">
+        <v>1.831554000000045</v>
+      </c>
+      <c r="N469" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -24608,6 +26089,9 @@
         <v>0</v>
       </c>
       <c r="M470" t="n">
+        <v>-0.36816</v>
+      </c>
+      <c r="N470" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24655,6 +26139,9 @@
         <v>0</v>
       </c>
       <c r="M471" t="n">
+        <v>-0.0158132</v>
+      </c>
+      <c r="N471" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24710,6 +26197,9 @@
         <v>-0.4100000000000037</v>
       </c>
       <c r="M472" t="n">
+        <v>-0.4250891000000037</v>
+      </c>
+      <c r="N472" t="n">
         <v>-0.7000000000000001</v>
       </c>
     </row>
@@ -24765,6 +26255,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M473" t="n">
+        <v>-0.07504360000000226</v>
+      </c>
+      <c r="N473" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -24812,6 +26305,9 @@
         <v>0</v>
       </c>
       <c r="M474" t="n">
+        <v>-0.0150514</v>
+      </c>
+      <c r="N474" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24859,6 +26355,9 @@
         <v>0</v>
       </c>
       <c r="M475" t="n">
+        <v>-0.0369356</v>
+      </c>
+      <c r="N475" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24906,6 +26405,9 @@
         <v>0</v>
       </c>
       <c r="M476" t="n">
+        <v>-0.09758839999999999</v>
+      </c>
+      <c r="N476" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24953,6 +26455,9 @@
         <v>0</v>
       </c>
       <c r="M477" t="n">
+        <v>-2.53604e-05</v>
+      </c>
+      <c r="N477" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24967,7 +26472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24983,25 +26488,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rq_sum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_percent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>average_percent</t>
         </is>
@@ -25014,85 +26524,97 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.05223039999997851</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.4299999999999786</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>29</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.01482758620689581</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.9099999999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-44.39999999999964</v>
+        <v>-11.98742000000007</v>
       </c>
       <c r="C3" t="n">
+        <v>-10.80000000000007</v>
+      </c>
+      <c r="D3" t="n">
         <v>28</v>
       </c>
-      <c r="D3" t="n">
-        <v>-1.585714285714273</v>
-      </c>
       <c r="E3" t="n">
-        <v>-4.3</v>
+        <v>-0.3857142857142882</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.15</v>
+        <v>-6.69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10.80000000000007</v>
+        <v>88.552859000002</v>
       </c>
       <c r="C4" t="n">
+        <v>110.300000000002</v>
+      </c>
+      <c r="D4" t="n">
         <v>28</v>
       </c>
-      <c r="D4" t="n">
-        <v>-0.3857142857142882</v>
-      </c>
       <c r="E4" t="n">
-        <v>-6.69</v>
+        <v>3.939285714285786</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.24</v>
+        <v>3.58</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.300000000002</v>
+        <v>-51.90391199999964</v>
       </c>
       <c r="C5" t="n">
+        <v>-44.39999999999964</v>
+      </c>
+      <c r="D5" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.939285714285786</v>
-      </c>
       <c r="E5" t="n">
-        <v>3.58</v>
+        <v>-1.585714285714273</v>
       </c>
       <c r="F5" t="n">
-        <v>0.13</v>
+        <v>-4.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="6">
@@ -25102,18 +26624,21 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-1.860852400000083</v>
+      </c>
+      <c r="C6" t="n">
         <v>-0.940000000000083</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0.03481481481481789</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.6800000000000002</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -25124,18 +26649,21 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>-3.545268800000004</v>
+      </c>
+      <c r="C7" t="n">
         <v>-1.620000000000004</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.06230769230769247</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.5799999999999998</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -25146,18 +26674,21 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>-151.18556</v>
+      </c>
+      <c r="C8" t="n">
         <v>-110</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-4.583333333333333</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-1.72</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-0.07000000000000001</v>
       </c>
     </row>
@@ -25168,18 +26699,21 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0.1595445999999992</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.539999999999999</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.02249999999999996</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25190,63 +26724,72 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0.06097780000000098</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.7800000000000009</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>22</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.0354545454545455</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.6200000000000002</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.8699999999999837</v>
+        <v>0.004930164200000007</v>
       </c>
       <c r="C11" t="n">
+        <v>0.005460000000000007</v>
+      </c>
+      <c r="D11" t="n">
         <v>21</v>
       </c>
-      <c r="D11" t="n">
-        <v>-0.04142857142857065</v>
-      </c>
       <c r="E11" t="n">
-        <v>-1.46</v>
+        <v>0.0002600000000000003</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07000000000000001</v>
+        <v>5.58</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005460000000000007</v>
+        <v>-1.180256699999984</v>
       </c>
       <c r="C12" t="n">
+        <v>-0.8699999999999837</v>
+      </c>
+      <c r="D12" t="n">
         <v>21</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.0002600000000000003</v>
-      </c>
       <c r="E12" t="n">
-        <v>5.58</v>
+        <v>-0.04142857142857065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.27</v>
+        <v>-1.46</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -25256,63 +26799,72 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>-1.337296999999988</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.30000000000001</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>20</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.06500000000000053</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2399999999999998</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-46.00000000000023</v>
+        <v>3.640054799999957</v>
       </c>
       <c r="C14" t="n">
+        <v>4.359999999999957</v>
+      </c>
+      <c r="D14" t="n">
         <v>19</v>
       </c>
-      <c r="D14" t="n">
-        <v>-2.42105263157896</v>
-      </c>
       <c r="E14" t="n">
-        <v>-3.25</v>
+        <v>0.2294736842105241</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.17</v>
+        <v>3.02</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.359999999999957</v>
+        <v>-52.98245600000023</v>
       </c>
       <c r="C15" t="n">
+        <v>-46.00000000000023</v>
+      </c>
+      <c r="D15" t="n">
         <v>19</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.2294736842105241</v>
-      </c>
       <c r="E15" t="n">
-        <v>3.02</v>
+        <v>-2.42105263157896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.16</v>
+        <v>-3.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="16">
@@ -25322,18 +26874,21 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0.7392183999999242</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.739999999999924</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>17</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.1023529411764661</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.7599999999999999</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -25344,18 +26899,21 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>-0.4033197999999857</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.423861029081763e-14</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>8.89913143176102e-16</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-0.04999999999999993</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -25366,258 +26924,298 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>-0.00927315000000415</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.07499999999999576</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>16</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.004687499999999735</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3700000000000002</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1570000000000018</v>
+        <v>-0.3717370799999979</v>
       </c>
       <c r="C19" t="n">
+        <v>-0.259999999999998</v>
+      </c>
+      <c r="D19" t="n">
         <v>13</v>
       </c>
-      <c r="D19" t="n">
-        <v>-0.01207692307692322</v>
-      </c>
       <c r="E19" t="n">
-        <v>-1.32</v>
+        <v>-0.01999999999999984</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1</v>
+        <v>-0.77</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.259999999999998</v>
+        <v>-0.1972242100000018</v>
       </c>
       <c r="C20" t="n">
+        <v>-0.1570000000000018</v>
+      </c>
+      <c r="D20" t="n">
         <v>13</v>
       </c>
-      <c r="D20" t="n">
-        <v>-0.01999999999999984</v>
-      </c>
       <c r="E20" t="n">
-        <v>-0.77</v>
+        <v>-0.01207692307692322</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06</v>
+        <v>-1.32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>moex</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.140000000000015</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6490909090909104</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.42</v>
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.300000000000067</v>
+        <v>6.706946600000014</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>7.140000000000015</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4300000000000067</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.6490909090909104</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06</v>
+        <v>4.67</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.699999999999933</v>
+        <v>2.560028000000067</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>4.300000000000067</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5874999999999916</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.7000000000000001</v>
+        <v>0.4300000000000067</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.09</v>
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2700000000000387</v>
+        <v>-6.059656999999932</v>
       </c>
       <c r="C24" t="n">
+        <v>-4.699999999999933</v>
+      </c>
+      <c r="D24" t="n">
         <v>8</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.03375000000000484</v>
-      </c>
       <c r="E24" t="n">
-        <v>0.06999999999999999</v>
+        <v>-0.5874999999999916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01</v>
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.150000000000006</v>
+        <v>-0.4999964999999612</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>0.2700000000000387</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3071428571428579</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>-3.88</v>
+        <v>0.03375000000000484</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.55</v>
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005299999999999971</v>
+        <v>-2.258943900000005</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>-2.150000000000006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001324999999999993</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>0.89</v>
+        <v>-0.3071428571428579</v>
       </c>
       <c r="F26" t="n">
-        <v>0.22</v>
+        <v>-3.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1000000000000227</v>
+        <v>-0.01992981500000003</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0.005299999999999971</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03333333333334091</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.03999999999999998</v>
+        <v>0.001324999999999993</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.01</v>
+        <v>0.89</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.00159999999999999</v>
+        <v>-0.3174666000000228</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0007999999999999951</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.54</v>
+        <v>-0.03333333333334091</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.27</v>
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>moex</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0.00175355599999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>-0.00159999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>-0.0007999999999999951</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
